--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/34_Giresun_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/34_Giresun_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55FB0BA2-E654-4902-863D-82D83AAF5566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BB6C8D5-18FA-4FD8-883B-F452DD444791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{B4BD83E2-8578-4456-BDA0-218EB5CEC705}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{D2D49BB4-1ACB-47D1-8BE6-EA0D9F13E3FA}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{67E18FC1-BD0C-44DD-A175-6DA37FBDD091}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C08C6C2F-2A32-46DF-9A3E-5F7386EFAB3A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{180EA243-8492-4A7F-89B2-0239907610A4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{78BF6EA3-F1F8-4168-975E-FB73EA196768}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6502D2F8-1DAD-427E-9107-51BDE7CA067E}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{4474B35A-B875-4E4B-9278-634B67AD44B1}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{92C3FE70-EEE4-4CDB-B5D1-7912C400FFC4}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{336283D8-06B2-4818-B848-1B362939429A}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B4DFCE4E-BDB6-405D-BC76-24722B61CB72}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{2C8B16C4-3C6E-4082-8284-200D1BC2EF80}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{3446C5C7-E754-4F3F-AECB-46A56F1E4CD6}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9A5B54DB-2E64-4EB7-99E4-AC97627985F7}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{987CF405-5D32-48E2-8F6E-32C2FA707131}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C2B1F4EE-0D23-4D79-A068-CCCB4184528A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7137960-4670-432A-ADCA-3DA06FF92810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2849B92F-8D5A-4393-B39E-ABDC9CB6B234}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2556,18 +2556,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE9F4711-F39C-45EE-9FE2-19C1B3F6445C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E677EEC0-314B-4B6B-8526-EDD7D961D5A5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{374A7679-54D5-4A03-BA58-10F841C11830}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{83C4E084-7119-4845-9088-F93BEC7E2AE9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B37752A-8390-4643-A16E-A48E073D02CC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{614AF19A-386E-418C-8B6B-E058CB27AD73}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{63314C26-853E-45AE-87E3-1F96E29A975D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4BB9A8E-F9B9-4C09-B59B-4391A27BE1A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{256680C1-446E-48D7-9916-40CF58A08CA4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2A1A03D2-F7DF-41F3-89F2-E6ACC7C26430}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{838E4959-636A-4E82-8A3D-93D750BFCB34}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F114AD34-6BB9-49F0-B47C-2BBD3EB80042}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BE1729C3-E99C-4365-BC97-4DF3A8040FCA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{953C0AB5-3B36-4202-89C0-719FAF890071}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BCDF922E-8DF0-4BC8-9BFB-41F33DA88417}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E19BA140-2108-4833-98F1-5764F26EDCE2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{49BCC5ED-96C3-4B44-B45E-0D94FDFA4F8A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3FB9E88D-3E21-4E79-8CC4-F00718DB42D9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B35C851C-8AF5-4517-AA2A-C5C99D90F9C8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B286ACBF-26D2-4B59-84D4-7D21C8E98E88}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F4CB6008-D63B-44AC-942D-9059776090B3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{716FD72C-AB86-4122-9720-49ED825F9B73}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D480AEA5-7914-4AA4-8739-158A5A5301DE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{26823507-280D-47F5-938E-952CD484D251}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2580,7 +2580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB32F1CE-BC24-4BC3-B01A-2D0CCEF307C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF323C1-CBC5-4A8D-A968-4BC403F1CA35}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3812,18 +3812,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D9579A2-3303-4BEC-A2B2-2272DA546C09}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31F3F98A-8AC5-4865-8444-303CE07F7895}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E7C4D257-D188-4CCA-A5A8-3CC313A4F81C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{242D5270-49A8-4533-A187-DB8D19F4AA36}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE714F7F-80C2-43ED-80AC-59C14AB450D2}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D1AEC1A1-CF85-46C3-A531-1ACA35E2F29E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{628BE00D-7A9F-4588-A8AE-6FC85EE05EA8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E46478D-5001-4F87-A9A3-32E91C88F33F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D379DC95-804A-4967-9D78-6556AF8A06BD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F11893B5-FDC7-43D6-B7CA-01E2F821A866}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{041CCF59-6D7A-42A6-B35C-3D0C237D3021}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB472932-C894-4063-BFC9-82A16F997909}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{742C4E4A-B246-484B-A55A-22615BEB2C52}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BBA9A6C8-1080-4F9B-A6CD-D6520307A7E7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D7C38048-04C8-4504-8317-843C44EA16AC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E52A4FBC-805F-4D0A-80CD-206D7D7A13F9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0B507C9A-7427-4B21-A1C1-D7073E8D0805}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{64E17A5C-59DA-4AD4-B69F-C29F0D0A0696}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9F52671-A8F6-4E3E-A2A0-35304B3ABA60}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E3ED4A7-0848-4DFF-802A-E31916B9921F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4CEF57A1-6ACD-42AF-9422-1DE4742D137F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{63CB3475-0C26-4BD2-BB1B-F7FC4A326565}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CCAF15A2-BDD6-4DE9-8EBB-918A8B9681D6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D9AEDA29-9F81-46CC-B4AD-45ACB46DB9F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3836,7 +3836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4122B81-8E63-4F80-9AA1-525614B27A62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F193F90-F812-46F5-84EC-F51BEF4AC122}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5068,18 +5068,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C593262C-150C-4480-B56C-5BA38D84562F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{708433F0-1F8B-464E-ADBD-D0F7B05DED10}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{05189AC2-AB72-41F7-BA59-8A604BCD9B2E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A592DAEF-A3B0-4DB0-8E6C-2AC09F172136}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2883567F-2299-4E80-BD71-6C3EDE60D5AE}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{948FAD7B-A3DF-4F38-93BC-17D73C39C0AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3FACEC84-EA6A-44E2-9299-4C90528E7159}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6AC7C3F-535D-4F4B-AB47-2D5EACD19562}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{994537A6-B044-417C-87EE-D73152DA8C3E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{16CE6D6A-7B24-4EBE-A7FB-E9B6921254E2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{287E0203-F94C-40F7-94DC-5F86BB95A9C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F165742A-B5D2-4CE3-86C6-01E3D8BF36F1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4849210D-F85A-4487-9E91-2DA03E849224}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A7140301-AC0E-42A5-964F-C6AAF16D7244}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F7E14D3-3CAA-400B-9DE9-7722F92DA891}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{49113495-0716-423D-8467-AFE9821703AD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB3A09AF-714B-46BC-B38B-C77210DCA920}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2BB3429F-E7BD-4772-916B-7DA47A08A49D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{235E8471-71F0-4D55-B202-39C397CC33A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1DCB6BE4-146D-49D9-B87B-2F29237E0C04}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31AA075B-92EC-43A9-9D58-AD0E28F715EB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D5480007-2C7B-40A2-9867-E7E96B7F32FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{313B9FC0-5579-4E1F-A603-C0D232C6196F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A74A2981-A255-4057-B91B-01FC12E9EDCF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5092,7 +5092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E76F6-4F4C-4E0F-8A90-342D347CBB53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFDA503-5201-43BB-8FF0-EAD3400C529A}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6306,18 +6306,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B43479A-6CFC-4872-86FB-A2F3006911B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F18B9BE1-2D9B-430E-ADE8-4E310E62F51D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D66D697D-31D5-4CEA-BC46-F900A52A8609}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{41F1D84F-B213-4257-86FD-59D58851D22D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8DAE2F3-68AB-433E-964A-772FE2AAAEC6}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D6176B36-3B32-49AE-ADCE-D39C0C74BC46}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F248CA78-2531-42A5-A58C-5C2A8D9DCADB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A83AAC3-BDD2-431A-815C-F0C50A21A2FE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FCB4C054-C42E-42F5-9036-5934DC656D8C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CDBB4293-7BBE-4B48-8A08-20AF3F2A1531}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4AFD3ED-14C6-4A9F-8747-C235E38E72BA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70B06CE0-06AE-4697-9A95-7DA569DB7151}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9211D38E-98DF-43F1-BE0C-730E562D1BDA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C16339D-A5BA-43A8-8234-EAE206E689BA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{41759DB0-3CB7-4208-BEBD-0E3812D47999}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7DAEE9F9-AA69-4532-AC78-A529D0062F75}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9AECAE63-7E51-45C2-9ED9-5414F873E7C8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{435494E4-D70C-42DC-A821-E9B67644A409}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D53FE48-C983-495A-ADD1-DACA53D4278E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A621484D-AABA-485E-81F8-8247356CA9AE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE1BE1C6-E980-464D-B50C-B81F0353F0F0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BDD31BCE-C9A8-453A-B49B-04DCA37CFC93}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF4E74ED-71B3-495E-843B-9ED9C91B3F3C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{088BA3E5-FBBB-4143-B826-AC5A390A9496}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6330,7 +6330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87BCC12-7BFF-4E63-930B-420193C02FBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB45B803-899B-427F-BCCF-D2872014CDCF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7573,18 +7573,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E190751D-75B5-4562-8B4A-6EFA330082DB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04C0F7FD-1A08-462F-BC7D-BD6E48C636AB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CD13FD67-FBD4-47E1-810F-43DE89DE0F08}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9DB2EC8F-27E9-4AB5-8E60-1C6FA2929C59}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3FD7DF05-FA75-4EA0-97EE-355D18C3E810}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4687B7FC-3FFC-4634-AE01-66B00F97421D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78AB4F92-4A80-455F-94DE-FFB803E2EA47}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C33B824D-75F8-417E-89CA-5E80A7CC89F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BFCC8764-F921-4505-8A98-F6A9CEB6755A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{54CBEF67-DBAB-44E9-BE22-16C08BC13860}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2BCA0A1E-85AA-4B6D-8EAC-EAED8CEA5706}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4902DCCF-E2D2-4305-ADEE-C1B6803D12D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0689D815-8BE0-4935-84DC-3A2633555EE9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE1A2EC4-18FE-4CD5-82F5-D474DD69A720}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9126ACBD-AE93-4D8B-97C5-F779BBE51F8B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8EC1F93D-4FBC-443D-A7C1-2759D93884BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BCD0D0DA-9DBB-4491-8DC4-FBFB27322387}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4BB69CED-3EBA-4F72-BF47-B0938FEFD249}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3915CD2E-92C6-418A-98CD-09DF5FC13D62}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87DAB63D-3700-459D-848A-D84EDD3F3FEB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{018F3878-EDC6-4E7F-996C-48D7D6378134}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3CD25DA3-0187-4A8E-8D48-887F5BFE6160}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7AE1165-64D8-4B9A-A672-CCF90D5E2920}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3D55C4FF-6E2A-43C5-9215-09CF26BDC449}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7597,7 +7597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D6AB8D-E9D1-4091-8698-AD2F320F5180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5356405-D6C8-4CBC-9C37-67F22402429A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8840,18 +8840,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF6BAB3F-149B-4DED-8CBD-39A74ACA3DF4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3A3FE51F-76F5-4894-A161-2C8B1BE598B3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BBB29584-E6B8-4572-AF4D-BF5B387C912D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0FF3C139-0134-438C-B9D1-4612932DC3C7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9AB1BCFC-A3E1-47C8-BBB1-AA72C3E9B321}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ABADA7C8-8FA4-47FA-B609-2CBDB944A3E0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91992193-6BF4-4EA0-B1DF-A8C54A3543F7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{637C5273-B269-4C72-9C38-1118F625747D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BE33E23D-CCCC-41CC-83C7-90C857578594}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB051F25-B4E2-4EE6-802E-022CFE89AF5E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42A40381-6F6B-4AF3-B18B-664D9DC97C6E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{89FE6729-0B52-4B46-B893-A2EDA8C4E30C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4840A23-964C-4CF5-A4E4-824768D23174}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE1F6B43-1438-4BC6-8C46-C1EC4539B98D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FDFA94A2-9CB7-431D-A272-FB7646B47C22}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{68C1CC3D-A09B-4323-A39B-47D72000D83F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3D3A08E8-5DBC-47E5-97F3-6F41225B5150}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{846FFE5C-2BB4-497A-B0FD-E4FF1B9BBBC3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F75F401D-1C9D-408E-8082-48C29B532FBD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E34D4C9-128D-4883-95B1-98DF011F78CE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F95EF050-F3E5-4685-9F0D-961B2AB5D378}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A4CDF184-9128-4CBE-BF43-DB147FFC6FA4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D13961C2-C264-4515-A4CC-42E0B1FE7643}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3A6FE14-2C8E-42EB-A23F-BEC651ECF595}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8864,7 +8864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD79E50-2FAA-48FE-87E3-5463898622B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152C4942-B71C-44E6-B477-DD6A594409BC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10107,18 +10107,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28F33063-B36F-45F0-9DD8-2C4EB085AB4C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20D0383C-757E-4D9A-B9CA-54A2571807FC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{55E82AA3-9D38-4813-941B-A8284643A587}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9FF4D199-0213-4188-94BF-3C133B0160E4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B85A158B-DD3C-4A08-8607-A39E9147B3E7}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0343C358-AA87-49CF-9ACE-B4A82B6301A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9C125A2-ADC0-4CDA-8338-51634AA07074}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{162ECC12-9198-4120-B0F5-EEE1A2AB2FF1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{70FCB956-14B9-4CC9-A244-86F226EE8192}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5464ACE1-93B4-4FE6-8A86-C724420FB2FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B007B5F7-54B9-4C90-80E0-917D9E79A119}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C3C1743-FE42-421C-9940-BB4DD21EBC57}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC602456-9753-4983-BA17-73A9F2382C4B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2572D496-CF47-4878-B05F-F6ECC62EB868}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{466EF6A7-D27D-4C55-A117-64692664FD00}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{788782EC-03EB-46CC-8303-BE5B9B154242}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{276FEB8B-D577-4E72-B630-890EAEEFBE38}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F3B6A0BD-C594-4511-90E4-C4AA5E286AC3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10C88CF9-1100-481C-9E2F-015C5A2C7139}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B341BBF0-6B3E-4A14-9EC9-1D2FF488ADB4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E46E291-12A8-469D-99D4-4B6724FCA98F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D9ABD581-945F-4947-987A-FE0967BA5598}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BBB794FF-044D-4CB9-B511-BD29A368106C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9787244D-EEC7-40C3-B959-8C80B533B56C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10131,7 +10131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA64109-1FD9-4517-9E80-612B1676A4FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FEDDB2-B6DB-44D7-A943-1902B5B64CE4}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11371,18 +11371,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{993991EC-1301-4313-9BF0-F620184F4F93}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B3720AF3-6D72-49C8-8DAA-8A418F22473F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0BA30E61-3388-4D16-9278-1865459C0964}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CDF98F20-E754-4EBC-9EEB-ABED25AE9EFF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4E99E5D-FF07-44E5-BDDA-05094752BF6E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2FD679E6-E1E2-4173-BCB7-C7B43D7B8C81}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{01C03005-C19C-4C38-97A5-E13A805D5C37}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{47F166CA-D82F-455E-B30B-F4981F055AC3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{083B9D72-774A-4711-AD85-D790C4007904}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DC537887-319E-49FE-9684-B8432EB4EFEF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B0B31224-D66A-4DCF-8AFD-DE141D6D9F87}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{66B3762F-A042-48B6-AAFF-15415904D7C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5DF0E20-03B9-4166-8908-66068D2C3FEB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{227CC886-89B4-4A3D-8372-CB754A336321}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{19B049A6-7845-4C5E-B55D-036F51026929}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FA8450BD-184C-4556-9F35-70C5CD8CAAE0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6584E00-5B6D-408C-8F21-D7643E88F2BA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1AD5B49E-3CFD-4C3C-81AF-9AF5FDD495A4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB84195D-2001-489B-B1CF-A998181EC8CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04A35A89-3697-4FD9-BD10-9CFE575307CE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{929320D5-C073-49DE-8779-F2A4E48E76D5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2853D334-B1A9-4F28-90B8-4398BE7C04B6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBD506C5-7DB5-4675-8DB6-73A3ECEC1DD0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9141AAF5-713C-4EC9-8232-32CE90E81942}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11395,7 +11395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F661FC-08C0-42F3-8B00-B5F2CDA5794A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460F958D-7E36-4A40-A3C6-42C358A25ED5}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12635,18 +12635,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C9C055FC-01D5-4CEF-B7FD-BB1F71860E90}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7FF9F43D-2263-414C-8F4B-38701E9202E9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{74595014-DAD6-4E0B-87EA-919C7BF5C53D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E488E95D-CDE5-4A3E-A17A-CCE75E787190}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A22E5C9F-8538-4AA9-8B0D-2BF0752A690D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{80B3E910-0A22-4FBE-A568-2F6C364AEF39}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4576F8A7-239F-47BA-8038-5FC7FDD389DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FFD88083-9918-4005-8599-07487B92A98B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{74179F08-D9A9-4404-9D36-4AA6E8106DCF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{643CDE45-4C86-45EB-8F47-95A36939B743}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{533EE301-D4AA-45E8-8661-B7DCE43AF28B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C02B9C79-A504-4F64-B716-F47151F5FF68}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D62DBCAB-CDEE-47EA-9D48-5ABAA828C315}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{99E95CD0-0F6D-41B3-98D0-BCABE3249088}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{92CDB2B5-95E6-4926-B4DC-426509E85479}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6F2A33F6-DB03-4BD5-88B7-0688137A6725}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B10648BC-ADBC-4329-B8E7-F16DF0218D46}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4A32D8B1-C0F5-4671-9DA6-6BA231505FA3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C785B45-53B6-4736-B1B7-073E45B1A5EF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4587006D-DE67-4E05-B35A-3833581C63C1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C9935AA-DFFE-4E4B-BA5C-108FD4C6BB84}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{802EF96F-0245-41BD-94EF-835CB98FA2ED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90A2386D-D200-4185-8B44-A85A8C0266A3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{88A7BBBA-F128-429D-8B83-971B48C222B3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12659,7 +12659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52209B6-6F48-49C2-AA7D-6E96D90FD8C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C795115-B64C-4857-A821-DBB9B0F6C30E}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -13899,18 +13899,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F47B839D-76A9-4EBA-B800-29B9EE4B7C0A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60FA2B84-E64F-45CF-B7FA-3CE30C167A3C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CF1678CC-DA3A-49C4-A225-67177A82B0E3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EECA698C-4D96-40D0-9299-DC6DCA698B0A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{763656D1-A576-4EE3-A08C-4E314241D96D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1F579E4F-16AE-4942-860C-A71B90DBAAEF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDF93AD7-E2B8-4F1A-B921-5101F909BD5F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15361DB8-5C13-4A4F-B764-157888522AF2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC065150-D0BF-4781-BE12-D81E19899156}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C89BD67C-8E35-4922-A283-2E3C3DAE9EC6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF3F6E4A-F5E4-4065-8DCE-A853B06A4357}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6CDAD764-BB0F-41C7-9CFA-7DCE1DAD50EB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69475830-F775-4C3E-A692-215FDFE7D4C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFC75025-6887-4E2A-BA16-B8114207CAF8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{768EF717-D4DE-442B-B071-E70056BEBC58}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9A5FE793-5D63-4369-825D-1769E116485D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{60471051-CD78-4898-B5AC-B1D07E002CFF}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4C49B206-19BE-45DB-91B7-AAF17210D747}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2325EAB-FB37-405D-AA18-F23500AC9DC5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB339B53-34B5-4E33-8E1F-46336C53002E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8FD89FCE-1CB8-490E-B253-FE6BA9D96F98}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E0602323-845F-4E6D-92D2-6B600D724A38}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1782031B-0817-4C62-AAB3-486FB1E48523}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0BC3D147-F144-4125-B44D-3C10104BA413}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13923,7 +13923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C6340A-CAF6-409C-B1EA-4D3BF32EA660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E842F325-0C82-4BAC-9965-7B542769B1BC}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15163,18 +15163,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A57CB05-C1AC-48B4-892F-0BCBDB18BAD9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{365C167E-4E3C-4E7C-8C88-D6A7CC505350}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B0A0BB5-9DFC-4ECC-8AD6-D78D466D851A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D70B1287-8218-454D-A6C8-4EBF8D40AEEE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F66DE92-9189-4EEE-831E-12F016F0F9D0}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FD7F13C9-FEB2-4A5F-B3B8-B87EC1468457}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5B9DEB77-5BBC-4C09-8790-09F52FC2F01E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{555941B7-EF60-4ECE-888D-316575086513}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{489D4E1E-153C-4BE8-ADC4-156A5C315CA4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89B82115-FBD6-4D62-8C2B-03266FF2C3B0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F714D9B2-B94C-4500-9D6F-1E5355875BA4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CFAD4ACB-CC2F-4BE5-9519-37EEFC6AF7DF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E461EB9-171C-4CDB-BD9D-FE7072E768FA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71825002-330E-4AE7-ABAB-F3BBDA8615EC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F0F56576-441A-4738-8C13-F908B5A53B74}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D0A20C37-C6AA-40A1-83EC-67E362B38969}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F39C9337-CD50-4145-8ED4-C1CFAEEFB9C8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BD2F65B5-56E8-4916-83E5-D0A080F04DD7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B09DA5E-98E3-4945-8DB3-F7286A9A9567}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AD81365-DA0C-4C1A-B0DA-2F3F521D932D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4EB085DC-F2C9-419D-B512-E8D521AC522D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{753F7908-6AF3-4228-81E7-EBA79804E045}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CAC47DC-3FA8-4481-9C4F-6AFEA89A076A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{095A0B91-655B-47F3-8CF8-3478F6F61556}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15187,7 +15187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E972D6-BAA2-40F6-B473-0C0930989BDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EDC527-95E8-477A-A95F-78386B2DC8CB}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16427,18 +16427,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A09BAD21-C49E-46A9-878C-D6FD24DAEF1C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D933901-0F3F-4DE7-B906-FF28006BAB7D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C3DFCDDE-ECDA-4691-9E7D-D76268FE775F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{21E903DF-2F78-4730-976B-30B50F9B45B4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83607C87-E8FE-4D41-84C2-5246976FAF9F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{42377CFB-87FD-4C8F-94AB-B3E8B87E00B4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52117C40-1BF3-47C8-AE46-9A3E8FE6080F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97E821D1-861F-4305-B90B-562C16850410}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD1D1741-6115-49C0-848C-17B7C4A9C526}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{766EAD19-7B19-4E5C-9B99-04C84CEB49AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{14E279A9-479B-4457-BE8A-18CE309D23C8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94150DF9-E8EF-491F-85B8-E280E8C00B54}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF9C626F-7D19-40B2-9C6D-13B667B5A572}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE17AD42-A4B0-41AE-9C73-F73F52E3A2E1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{956A4F60-7509-4B41-BAD6-CB4D5A896194}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7688BE47-3B1E-4563-B8AE-4F70B742498D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A8376AF-3EC1-40C8-8BD8-0A307564B65E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7EF785DB-07B5-48C1-9E9B-AB8F9B50B71F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{993B2DE2-FF37-438E-97E0-DBBF54476D07}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0BF67EF6-40B2-41C7-997C-77CF131184C2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{403F2848-1842-410C-ACB7-8B88FB36ABA9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{35037912-D3A0-415E-A300-A47445676957}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{67FEAB75-8FF7-4F1A-928D-1A3A5D7AC689}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40EDA9D0-616C-47E1-ADE4-3525C8A79F45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
